--- a/example_sdrf.xlsx
+++ b/example_sdrf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Payne Lab\TMT\TMT_QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94D3A34-1AEE-41C0-AE56-AA8CF222735C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9331CEE-0CDD-4EB7-B367-298830DA74BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0FF2B6B-E326-450E-82DA-7E4299F0AAC8}"/>
+    <workbookView xWindow="-105" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{B0FF2B6B-E326-450E-82DA-7E4299F0AAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <dimension ref="A1:J204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
